--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>767018.8285781475</v>
+        <v>762496.6463479958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7422292.903432945</v>
+        <v>7422292.903432939</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>209.7029308235357</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.8515169420447</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>192.0521282575175</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>111.3266660009012</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>133.7728949137413</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.7167301225565</v>
@@ -1548,7 +1548,7 @@
         <v>134.5550226373062</v>
       </c>
       <c r="I13" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>277.3347311118176</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>253.9823168035531</v>
       </c>
       <c r="G14" t="n">
-        <v>81.11503014390661</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H14" t="n">
         <v>274.8515169420447</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.9565085957259</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.37695545534142</v>
+        <v>55.07817059691481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.1383045355418</v>
@@ -1821,13 +1821,13 @@
         <v>237.1559102373387</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>134.0551301904144</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>262.1420156932942</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U17" t="n">
         <v>255.6148311530628</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>114.8796423819708</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7167301225565</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S19" t="n">
         <v>153.1383045355418</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.2549483383614</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>200.8464696815337</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>38.20463270772317</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>167.6134486087588</v>
+        <v>63.96347397353338</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>7.10499757137017</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U22" t="n">
         <v>277.3347311118176</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>198.711009004526</v>
       </c>
       <c r="E23" t="n">
-        <v>196.432789674972</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.8515169420447</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>23.56644429933211</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>32.23637725693317</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.7167301225565</v>
@@ -2496,7 +2496,7 @@
         <v>134.5550226373062</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>153.1383045355418</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3347311118176</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>73.01532047011496</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>371.8941640812856</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>23.47747991156696</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>72.37695545534142</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S28" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>168.4328605895555</v>
       </c>
       <c r="U28" t="n">
         <v>277.3347311118176</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H29" t="n">
-        <v>167.2575073312622</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>388.3062942471354</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.95204405400333</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2958,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.93505157953886</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.1383045355418</v>
@@ -3006,7 +3006,7 @@
         <v>237.1559102373387</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>42.96087049657004</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>378.2130655805576</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>46.72887991646947</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T34" t="n">
-        <v>215.627396034621</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U34" t="n">
         <v>277.3347311118176</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>396.0311607604562</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>108.0651713471771</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>153.1383045355418</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3347311118176</v>
+        <v>174.7088086181682</v>
       </c>
       <c r="V37" t="n">
-        <v>97.12253640842175</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>115.2680226907346</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3390573303334</v>
+        <v>72.08175650677518</v>
       </c>
       <c r="H38" t="n">
         <v>274.8515169420447</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.49227842899529</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1559102373387</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>1.215881026300188</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>276.32137084328</v>
       </c>
       <c r="G41" t="n">
-        <v>127.9878403854082</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.73726926693029</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>255.6148311530628</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>31.72909873051096</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>7.10499757137017</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1559102373387</v>
+        <v>60.98112662221955</v>
       </c>
       <c r="U43" t="n">
         <v>277.3347311118176</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>139.9737397375957</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.8515169420447</v>
+        <v>3.865271746582768</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>1.590420370603025</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.37695545534142</v>
+        <v>70.37975263371405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>7.10499757137017</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>933.7996291603235</v>
+        <v>1168.032605367873</v>
       </c>
       <c r="C11" t="n">
-        <v>933.7996291603235</v>
+        <v>1168.032605367873</v>
       </c>
       <c r="D11" t="n">
-        <v>933.7996291603235</v>
+        <v>744.7399845528737</v>
       </c>
       <c r="E11" t="n">
-        <v>933.7996291603235</v>
+        <v>744.7399845528737</v>
       </c>
       <c r="F11" t="n">
-        <v>721.9784869143278</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="G11" t="n">
         <v>319.6158027422738</v>
@@ -5038,28 +5038,28 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I11" t="n">
-        <v>82.46363936387547</v>
+        <v>82.46363936387525</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7424336056677</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7352879792935</v>
+        <v>428.7352879792934</v>
       </c>
       <c r="L11" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M11" t="n">
-        <v>999.5589014613563</v>
+        <v>999.558901461356</v>
       </c>
       <c r="N11" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O11" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P11" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q11" t="n">
         <v>2012.404604961347</v>
@@ -5068,25 +5068,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S11" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T11" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U11" t="n">
-        <v>2099.40039256598</v>
+        <v>1781.873018404371</v>
       </c>
       <c r="V11" t="n">
-        <v>1741.910977692229</v>
+        <v>1587.880969659403</v>
       </c>
       <c r="W11" t="n">
-        <v>1345.519627992576</v>
+        <v>1587.880969659403</v>
       </c>
       <c r="X11" t="n">
-        <v>933.7996291603235</v>
+        <v>1587.880969659403</v>
       </c>
       <c r="Y11" t="n">
-        <v>933.7996291603235</v>
+        <v>1587.880969659403</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>61.66083576940667</v>
       </c>
       <c r="J12" t="n">
-        <v>139.1740587367884</v>
+        <v>428.6498350246929</v>
       </c>
       <c r="K12" t="n">
-        <v>284.3566619303507</v>
+        <v>573.8324382182552</v>
       </c>
       <c r="L12" t="n">
-        <v>487.1000015078574</v>
+        <v>776.575777795762</v>
       </c>
       <c r="M12" t="n">
-        <v>726.837407087266</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N12" t="n">
-        <v>975.2613532302563</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O12" t="n">
-        <v>1198.910013673976</v>
+        <v>1488.38578996188</v>
       </c>
       <c r="P12" t="n">
-        <v>1375.266157629725</v>
+        <v>1664.74193391763</v>
       </c>
       <c r="Q12" t="n">
         <v>1774.51947636317</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>723.4773418097222</v>
+        <v>793.7937644499299</v>
       </c>
       <c r="C13" t="n">
-        <v>551.5047786886382</v>
+        <v>793.7937644499299</v>
       </c>
       <c r="D13" t="n">
-        <v>551.5047786886382</v>
+        <v>681.3425866712417</v>
       </c>
       <c r="E13" t="n">
-        <v>551.5047786886382</v>
+        <v>515.1343808240953</v>
       </c>
       <c r="F13" t="n">
-        <v>416.3806424121319</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="G13" t="n">
-        <v>251.0102079449031</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H13" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I13" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J13" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K13" t="n">
-        <v>488.3872759282665</v>
+        <v>410.4655592800457</v>
       </c>
       <c r="L13" t="n">
-        <v>595.8684234949386</v>
+        <v>894.3356004378827</v>
       </c>
       <c r="M13" t="n">
-        <v>709.7216946248996</v>
+        <v>1008.188871567844</v>
       </c>
       <c r="N13" t="n">
-        <v>1025.712181833544</v>
+        <v>1177.085679211443</v>
       </c>
       <c r="O13" t="n">
-        <v>1503.954413022565</v>
+        <v>1655.327910400464</v>
       </c>
       <c r="P13" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q13" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R13" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S13" t="n">
-        <v>1937.538471245867</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T13" t="n">
-        <v>1937.538471245867</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="U13" t="n">
-        <v>1657.402379213728</v>
+        <v>1819.264300533841</v>
       </c>
       <c r="V13" t="n">
-        <v>1657.402379213728</v>
+        <v>1537.55283314187</v>
       </c>
       <c r="W13" t="n">
-        <v>1382.549975386241</v>
+        <v>1262.700429314383</v>
       </c>
       <c r="X13" t="n">
-        <v>1139.986078832046</v>
+        <v>1020.136532760188</v>
       </c>
       <c r="Y13" t="n">
-        <v>913.643310521788</v>
+        <v>793.7937644499299</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1679.55202827445</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="C14" t="n">
-        <v>1252.65129828775</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="D14" t="n">
-        <v>1252.65129828775</v>
+        <v>1404.503221517534</v>
       </c>
       <c r="E14" t="n">
-        <v>826.6743584356076</v>
+        <v>978.5262816653916</v>
       </c>
       <c r="F14" t="n">
-        <v>401.5501766250078</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="G14" t="n">
         <v>319.6158027422738</v>
@@ -5275,25 +5275,25 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I14" t="n">
-        <v>82.4636393638753</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7424336056675</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L14" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M14" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N14" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O14" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P14" t="n">
         <v>1838.988606965869</v>
@@ -5305,25 +5305,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S14" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T14" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U14" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="V14" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="W14" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="X14" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="Y14" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
     </row>
     <row r="15">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>251.0102079449031</v>
+        <v>764.3797110188232</v>
       </c>
       <c r="C16" t="n">
-        <v>251.0102079449031</v>
+        <v>764.3797110188232</v>
       </c>
       <c r="D16" t="n">
-        <v>251.0102079449031</v>
+        <v>601.0629381455939</v>
       </c>
       <c r="E16" t="n">
-        <v>251.0102079449031</v>
+        <v>434.8547322984474</v>
       </c>
       <c r="F16" t="n">
-        <v>251.0102079449031</v>
+        <v>262.9929580730078</v>
       </c>
       <c r="G16" t="n">
-        <v>251.0102079449031</v>
+        <v>97.62252360577901</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0960436647958</v>
+        <v>97.62252360577901</v>
       </c>
       <c r="I16" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J16" t="n">
-        <v>122.0486243762658</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K16" t="n">
-        <v>202.2432067734778</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L16" t="n">
-        <v>686.1132479313148</v>
+        <v>647.0529913238606</v>
       </c>
       <c r="M16" t="n">
-        <v>1205.714845091395</v>
+        <v>1166.654588483941</v>
       </c>
       <c r="N16" t="n">
-        <v>1716.170710710056</v>
+        <v>1677.110454102601</v>
       </c>
       <c r="O16" t="n">
-        <v>1816.710617595873</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P16" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q16" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R16" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S16" t="n">
-        <v>1937.538471245867</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T16" t="n">
-        <v>1697.987046763707</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="U16" t="n">
-        <v>1417.850954731568</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="V16" t="n">
-        <v>1136.139487339596</v>
+        <v>1423.452344595342</v>
       </c>
       <c r="W16" t="n">
-        <v>861.2870835121093</v>
+        <v>1423.452344595342</v>
       </c>
       <c r="X16" t="n">
-        <v>618.7231869579144</v>
+        <v>1180.888448041147</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.3804186476565</v>
+        <v>954.5456797308889</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>604.2979602525795</v>
+        <v>1157.879044355773</v>
       </c>
       <c r="C17" t="n">
-        <v>177.3972302658796</v>
+        <v>1157.879044355773</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9880078513196</v>
+        <v>1157.879044355773</v>
       </c>
       <c r="E17" t="n">
-        <v>41.9880078513196</v>
+        <v>731.9021045036308</v>
       </c>
       <c r="F17" t="n">
-        <v>41.9880078513196</v>
+        <v>306.777922693031</v>
       </c>
       <c r="G17" t="n">
-        <v>41.9880078513196</v>
+        <v>306.777922693031</v>
       </c>
       <c r="H17" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="I17" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J17" t="n">
         <v>217.7424336056674</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L17" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M17" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N17" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O17" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P17" t="n">
         <v>1838.988606965869</v>
@@ -5542,25 +5542,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S17" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T17" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U17" t="n">
-        <v>1841.203593421472</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="V17" t="n">
-        <v>1841.203593421472</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="W17" t="n">
-        <v>1841.203593421472</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="X17" t="n">
-        <v>1429.483594589219</v>
+        <v>1157.879044355773</v>
       </c>
       <c r="Y17" t="n">
-        <v>1024.14632454411</v>
+        <v>1157.879044355773</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I18" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J18" t="n">
-        <v>428.6498350246929</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K18" t="n">
-        <v>573.8324382182552</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L18" t="n">
-        <v>776.575777795762</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.313183375171</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N18" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R18" t="n">
         <v>1815.43175696209</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>509.4808124458021</v>
+        <v>551.192779665072</v>
       </c>
       <c r="C19" t="n">
-        <v>509.4808124458021</v>
+        <v>379.2202165439879</v>
       </c>
       <c r="D19" t="n">
-        <v>509.4808124458021</v>
+        <v>379.2202165439879</v>
       </c>
       <c r="E19" t="n">
-        <v>343.2726065986557</v>
+        <v>379.2202165439879</v>
       </c>
       <c r="F19" t="n">
-        <v>343.2726065986557</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="G19" t="n">
-        <v>177.9021721314269</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H19" t="n">
         <v>41.9880078513196</v>
@@ -5673,22 +5673,22 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J19" t="n">
-        <v>139.4622326356307</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K19" t="n">
-        <v>466.9394241468647</v>
+        <v>353.6167041513765</v>
       </c>
       <c r="L19" t="n">
-        <v>950.8094653047018</v>
+        <v>837.4867453092136</v>
       </c>
       <c r="M19" t="n">
-        <v>1064.662736434663</v>
+        <v>1357.088342469294</v>
       </c>
       <c r="N19" t="n">
-        <v>1177.085679211443</v>
+        <v>1867.544208087954</v>
       </c>
       <c r="O19" t="n">
-        <v>1655.327910400464</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P19" t="n">
         <v>2051.015803810863</v>
@@ -5697,28 +5697,28 @@
         <v>2099.40039256598</v>
       </c>
       <c r="R19" t="n">
-        <v>2099.40039256598</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S19" t="n">
-        <v>1944.715236469473</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.163811987313</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U19" t="n">
-        <v>1425.027719955174</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="V19" t="n">
-        <v>1143.316252563203</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="W19" t="n">
-        <v>868.4638487357156</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="X19" t="n">
-        <v>625.8999521815207</v>
+        <v>893.5755907854015</v>
       </c>
       <c r="Y19" t="n">
-        <v>509.4808124458021</v>
+        <v>667.2328224751435</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>924.853708814867</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="C20" t="n">
-        <v>924.853708814867</v>
+        <v>1316.381750329062</v>
       </c>
       <c r="D20" t="n">
-        <v>924.853708814867</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="E20" t="n">
-        <v>924.853708814867</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F20" t="n">
-        <v>721.9784869143278</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G20" t="n">
-        <v>319.6158027422738</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H20" t="n">
         <v>41.9880078513196</v>
@@ -5761,7 +5761,7 @@
         <v>696.4871173961204</v>
       </c>
       <c r="M20" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N20" t="n">
         <v>1308.284447706123</v>
@@ -5779,25 +5779,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S20" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T20" t="n">
-        <v>2099.40039256598</v>
+        <v>2001.479279460269</v>
       </c>
       <c r="U20" t="n">
-        <v>2099.40039256598</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="V20" t="n">
-        <v>1741.910977692229</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="W20" t="n">
-        <v>1741.910977692229</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="X20" t="n">
-        <v>1330.190978859977</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="Y20" t="n">
-        <v>924.853708814867</v>
+        <v>1743.282480315761</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>85.11814161381852</v>
       </c>
       <c r="J21" t="n">
-        <v>162.6313645812002</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K21" t="n">
         <v>468.3769379333496</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.1624979062292</v>
+        <v>444.7783464897857</v>
       </c>
       <c r="C22" t="n">
-        <v>706.1899347851452</v>
+        <v>272.8057833687018</v>
       </c>
       <c r="D22" t="n">
-        <v>542.8731619119159</v>
+        <v>272.8057833687018</v>
       </c>
       <c r="E22" t="n">
-        <v>376.6649560647694</v>
+        <v>106.5975775215553</v>
       </c>
       <c r="F22" t="n">
-        <v>207.3584423185484</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G22" t="n">
         <v>41.9880078513196</v>
@@ -5913,22 +5913,22 @@
         <v>82.98836776881163</v>
       </c>
       <c r="K22" t="n">
-        <v>410.4655592800457</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L22" t="n">
-        <v>894.3356004378827</v>
+        <v>459.7844210060105</v>
       </c>
       <c r="M22" t="n">
-        <v>1008.188871567844</v>
+        <v>979.3860181660905</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.611814344624</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O22" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P22" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q22" t="n">
         <v>2099.40039256598</v>
@@ -5937,25 +5937,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S22" t="n">
-        <v>2092.223627342374</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T22" t="n">
-        <v>2092.223627342374</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U22" t="n">
-        <v>1812.087535310235</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="V22" t="n">
-        <v>1812.087535310235</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="W22" t="n">
-        <v>1537.235131482748</v>
+        <v>861.2870835121093</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.671234928553</v>
+        <v>861.2870835121093</v>
       </c>
       <c r="Y22" t="n">
-        <v>1068.328466618295</v>
+        <v>634.9443152018514</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1345.519627992576</v>
+        <v>520.3339936559365</v>
       </c>
       <c r="C23" t="n">
-        <v>1345.519627992576</v>
+        <v>520.3339936559365</v>
       </c>
       <c r="D23" t="n">
-        <v>1345.519627992576</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="E23" t="n">
-        <v>1147.102668724928</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="F23" t="n">
-        <v>721.9784869143278</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="G23" t="n">
         <v>319.6158027422738</v>
@@ -5989,13 +5989,13 @@
         <v>82.46363936387525</v>
       </c>
       <c r="J23" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056672</v>
       </c>
       <c r="K23" t="n">
-        <v>428.7352879792936</v>
+        <v>428.735287979293</v>
       </c>
       <c r="L23" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961201</v>
       </c>
       <c r="M23" t="n">
         <v>999.5589014613562</v>
@@ -6004,10 +6004,10 @@
         <v>1308.284447706123</v>
       </c>
       <c r="O23" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P23" t="n">
-        <v>1838.988606965869</v>
+        <v>1838.98860696587</v>
       </c>
       <c r="Q23" t="n">
         <v>2012.404604961347</v>
@@ -6034,7 +6034,7 @@
         <v>1345.519627992576</v>
       </c>
       <c r="Y23" t="n">
-        <v>1345.519627992576</v>
+        <v>940.1823579474666</v>
       </c>
     </row>
     <row r="24">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.4638487357156</v>
+        <v>448.9426396413573</v>
       </c>
       <c r="C25" t="n">
-        <v>844.659359544471</v>
+        <v>448.9426396413573</v>
       </c>
       <c r="D25" t="n">
-        <v>681.3425866712417</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="E25" t="n">
-        <v>515.1343808240953</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="F25" t="n">
-        <v>343.2726065986557</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="G25" t="n">
-        <v>177.9021721314269</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="H25" t="n">
-        <v>41.9880078513196</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I25" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J25" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K25" t="n">
-        <v>241.1046668142444</v>
+        <v>353.6167041513765</v>
       </c>
       <c r="L25" t="n">
-        <v>348.5858143809165</v>
+        <v>837.4867453092136</v>
       </c>
       <c r="M25" t="n">
-        <v>868.1874115409965</v>
+        <v>1357.088342469294</v>
       </c>
       <c r="N25" t="n">
-        <v>1338.468386406852</v>
+        <v>1867.544208087954</v>
       </c>
       <c r="O25" t="n">
-        <v>1816.710617595873</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P25" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q25" t="n">
         <v>2099.40039256598</v>
@@ -6177,22 +6177,22 @@
         <v>1944.715236469473</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.163811987313</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="U25" t="n">
-        <v>1425.027719955174</v>
+        <v>1664.579144437334</v>
       </c>
       <c r="V25" t="n">
-        <v>1143.316252563203</v>
+        <v>1382.867677045363</v>
       </c>
       <c r="W25" t="n">
-        <v>868.4638487357156</v>
+        <v>1108.015273217876</v>
       </c>
       <c r="X25" t="n">
-        <v>868.4638487357156</v>
+        <v>865.4513766636809</v>
       </c>
       <c r="Y25" t="n">
-        <v>868.4638487357156</v>
+        <v>639.1086083534229</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>892.1813586530193</v>
+        <v>818.4928335125858</v>
       </c>
       <c r="C26" t="n">
-        <v>465.2806286663193</v>
+        <v>818.4928335125858</v>
       </c>
       <c r="D26" t="n">
-        <v>41.98800785131959</v>
+        <v>818.4928335125858</v>
       </c>
       <c r="E26" t="n">
-        <v>41.98800785131959</v>
+        <v>744.7399845528737</v>
       </c>
       <c r="F26" t="n">
-        <v>41.98800785131959</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="G26" t="n">
-        <v>41.98800785131959</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H26" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I26" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387527</v>
       </c>
       <c r="J26" t="n">
         <v>217.7424336056674</v>
       </c>
       <c r="K26" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L26" t="n">
-        <v>696.4871173961204</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M26" t="n">
-        <v>999.5589014613558</v>
+        <v>999.5589014613561</v>
       </c>
       <c r="N26" t="n">
-        <v>1308.284447706122</v>
+        <v>1308.284447706123</v>
       </c>
       <c r="O26" t="n">
         <v>1597.638246646539</v>
@@ -6250,28 +6250,28 @@
         <v>2012.404604961347</v>
       </c>
       <c r="R26" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S26" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T26" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U26" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V26" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W26" t="n">
-        <v>2099.400392565979</v>
+        <v>1643.678467849225</v>
       </c>
       <c r="X26" t="n">
-        <v>1687.680393733727</v>
+        <v>1643.678467849225</v>
       </c>
       <c r="Y26" t="n">
-        <v>1312.029722944549</v>
+        <v>1238.341197804116</v>
       </c>
     </row>
     <row r="27">
@@ -6299,13 +6299,13 @@
         <v>85.15130637965788</v>
       </c>
       <c r="H27" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I27" t="n">
-        <v>85.11814161381849</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J27" t="n">
-        <v>162.6313645812002</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K27" t="n">
         <v>468.3769379333496</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.1378117791019</v>
+        <v>616.4827966106111</v>
       </c>
       <c r="C28" t="n">
-        <v>778.1652486580178</v>
+        <v>616.4827966106111</v>
       </c>
       <c r="D28" t="n">
-        <v>754.4506224847179</v>
+        <v>453.1660237373818</v>
       </c>
       <c r="E28" t="n">
-        <v>588.2424166375714</v>
+        <v>286.9578178902353</v>
       </c>
       <c r="F28" t="n">
-        <v>416.3806424121318</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="G28" t="n">
-        <v>251.010207944903</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="H28" t="n">
         <v>115.0960436647958</v>
       </c>
       <c r="I28" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J28" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K28" t="n">
-        <v>488.3872759282665</v>
+        <v>410.4655592800457</v>
       </c>
       <c r="L28" t="n">
-        <v>771.389966199887</v>
+        <v>517.9467068467178</v>
       </c>
       <c r="M28" t="n">
-        <v>1290.991563359967</v>
+        <v>1037.548304006798</v>
       </c>
       <c r="N28" t="n">
-        <v>1403.414506136747</v>
+        <v>1548.004169625459</v>
       </c>
       <c r="O28" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P28" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q28" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R28" t="n">
-        <v>2099.400392565979</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S28" t="n">
-        <v>1944.715236469473</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="T28" t="n">
-        <v>1944.715236469473</v>
+        <v>1922.089424726661</v>
       </c>
       <c r="U28" t="n">
-        <v>1664.579144437334</v>
+        <v>1641.953332694522</v>
       </c>
       <c r="V28" t="n">
-        <v>1382.867677045362</v>
+        <v>1360.241865302551</v>
       </c>
       <c r="W28" t="n">
-        <v>1382.867677045362</v>
+        <v>1085.389461475064</v>
       </c>
       <c r="X28" t="n">
-        <v>1140.303780491168</v>
+        <v>842.8255649208691</v>
       </c>
       <c r="Y28" t="n">
-        <v>1140.303780491168</v>
+        <v>616.4827966106111</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>210.9349849536046</v>
+        <v>1295.451813686116</v>
       </c>
       <c r="C29" t="n">
-        <v>210.9349849536046</v>
+        <v>1295.451813686116</v>
       </c>
       <c r="D29" t="n">
-        <v>210.9349849536046</v>
+        <v>1295.451813686116</v>
       </c>
       <c r="E29" t="n">
-        <v>210.9349849536046</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="F29" t="n">
-        <v>210.9349849536046</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="G29" t="n">
-        <v>210.9349849536046</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H29" t="n">
         <v>41.9880078513196</v>
@@ -6463,25 +6463,25 @@
         <v>82.46363936387525</v>
       </c>
       <c r="J29" t="n">
-        <v>217.7424336056672</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K29" t="n">
-        <v>428.735287979293</v>
+        <v>428.7352879792934</v>
       </c>
       <c r="L29" t="n">
-        <v>696.4871173961201</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M29" t="n">
-        <v>999.5589014613563</v>
+        <v>999.558901461356</v>
       </c>
       <c r="N29" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O29" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P29" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q29" t="n">
         <v>2012.404604961347</v>
@@ -6490,25 +6490,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S29" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T29" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="U29" t="n">
-        <v>1781.873018404371</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="V29" t="n">
-        <v>1424.38360353062</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="W29" t="n">
-        <v>1027.992253830967</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="X29" t="n">
-        <v>616.2722549987143</v>
+        <v>1687.680393733727</v>
       </c>
       <c r="Y29" t="n">
-        <v>210.9349849536046</v>
+        <v>1295.451813686116</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I30" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1740587367884</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K30" t="n">
-        <v>573.8324382182552</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L30" t="n">
-        <v>776.575777795762</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.313183375171</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N30" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O30" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P30" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R30" t="n">
         <v>1815.43175696209</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.2773438456329</v>
+        <v>715.8700755015941</v>
       </c>
       <c r="C31" t="n">
-        <v>205.3047807245489</v>
+        <v>543.8975123805101</v>
       </c>
       <c r="D31" t="n">
-        <v>41.9880078513196</v>
+        <v>380.5807395072808</v>
       </c>
       <c r="E31" t="n">
-        <v>41.9880078513196</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="F31" t="n">
-        <v>41.9880078513196</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="G31" t="n">
-        <v>41.9880078513196</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H31" t="n">
         <v>41.9880078513196</v>
@@ -6645,28 +6645,28 @@
         <v>2099.40039256598</v>
       </c>
       <c r="R31" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S31" t="n">
-        <v>1937.538471245867</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.987046763707</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="U31" t="n">
-        <v>1417.850954731568</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.139487339596</v>
+        <v>1423.452344595342</v>
       </c>
       <c r="W31" t="n">
-        <v>861.2870835121093</v>
+        <v>1148.599940767855</v>
       </c>
       <c r="X31" t="n">
-        <v>618.7231869579144</v>
+        <v>906.0360442136597</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.3804186476565</v>
+        <v>906.0360442136597</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>890.4048104769191</v>
+        <v>892.1813586530193</v>
       </c>
       <c r="C32" t="n">
-        <v>890.4048104769191</v>
+        <v>465.2806286663193</v>
       </c>
       <c r="D32" t="n">
-        <v>467.1121896619194</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="E32" t="n">
-        <v>467.1121896619194</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="F32" t="n">
         <v>41.9880078513196</v>
@@ -6697,10 +6697,10 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I32" t="n">
-        <v>82.46363936387536</v>
+        <v>82.46363936387525</v>
       </c>
       <c r="J32" t="n">
-        <v>217.7424336056675</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K32" t="n">
         <v>428.7352879792934</v>
@@ -6709,16 +6709,16 @@
         <v>696.4871173961204</v>
       </c>
       <c r="M32" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613562</v>
       </c>
       <c r="N32" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O32" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P32" t="n">
-        <v>1838.988606965869</v>
+        <v>1838.98860696587</v>
       </c>
       <c r="Q32" t="n">
         <v>2012.404604961347</v>
@@ -6733,19 +6733,19 @@
         <v>2099.40039256598</v>
       </c>
       <c r="U32" t="n">
-        <v>2056.005573882576</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="V32" t="n">
-        <v>1698.516159008825</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="W32" t="n">
-        <v>1302.124809309172</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="X32" t="n">
-        <v>890.4048104769191</v>
+        <v>1717.366992989659</v>
       </c>
       <c r="Y32" t="n">
-        <v>890.4048104769191</v>
+        <v>1312.029722944549</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I33" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J33" t="n">
-        <v>428.6498350246929</v>
+        <v>162.6313645812002</v>
       </c>
       <c r="K33" t="n">
-        <v>573.8324382182552</v>
+        <v>307.8139677747625</v>
       </c>
       <c r="L33" t="n">
-        <v>776.575777795762</v>
+        <v>510.5573073522693</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.313183375171</v>
+        <v>750.2947129316779</v>
       </c>
       <c r="N33" t="n">
-        <v>1264.737129518161</v>
+        <v>998.7186590746682</v>
       </c>
       <c r="O33" t="n">
-        <v>1488.38578996188</v>
+        <v>1222.367319518387</v>
       </c>
       <c r="P33" t="n">
-        <v>1664.74193391763</v>
+        <v>1398.723463474137</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R33" t="n">
         <v>1815.43175696209</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>385.8223451978432</v>
+        <v>726.4898138817568</v>
       </c>
       <c r="C34" t="n">
-        <v>213.8497820767592</v>
+        <v>726.4898138817568</v>
       </c>
       <c r="D34" t="n">
-        <v>213.8497820767592</v>
+        <v>563.1730410085275</v>
       </c>
       <c r="E34" t="n">
-        <v>213.8497820767592</v>
+        <v>396.9648351613811</v>
       </c>
       <c r="F34" t="n">
-        <v>41.9880078513196</v>
+        <v>225.1030609359415</v>
       </c>
       <c r="G34" t="n">
-        <v>41.9880078513196</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H34" t="n">
         <v>41.9880078513196</v>
@@ -6858,52 +6858,52 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J34" t="n">
-        <v>82.98836776881163</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K34" t="n">
-        <v>163.1829501660236</v>
+        <v>241.1046668142444</v>
       </c>
       <c r="L34" t="n">
-        <v>647.0529913238606</v>
+        <v>348.5858143809165</v>
       </c>
       <c r="M34" t="n">
-        <v>760.9062624538216</v>
+        <v>868.1874115409965</v>
       </c>
       <c r="N34" t="n">
-        <v>1271.362128072482</v>
+        <v>1378.643277159657</v>
       </c>
       <c r="O34" t="n">
-        <v>1749.604359261503</v>
+        <v>1816.710617595873</v>
       </c>
       <c r="P34" t="n">
-        <v>2051.015803810863</v>
+        <v>1899.642306432964</v>
       </c>
       <c r="Q34" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R34" t="n">
-        <v>2099.40039256598</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S34" t="n">
-        <v>2099.40039256598</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T34" t="n">
-        <v>1881.594942025959</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U34" t="n">
-        <v>1601.45884999382</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="V34" t="n">
-        <v>1319.747382601849</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="W34" t="n">
-        <v>1044.894978774362</v>
+        <v>1142.998550904081</v>
       </c>
       <c r="X34" t="n">
-        <v>802.3310822201668</v>
+        <v>1142.998550904081</v>
       </c>
       <c r="Y34" t="n">
-        <v>575.9883139099088</v>
+        <v>916.6557825938226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1291.289044034074</v>
+        <v>1570.395289539927</v>
       </c>
       <c r="C35" t="n">
-        <v>1291.289044034074</v>
+        <v>1570.395289539927</v>
       </c>
       <c r="D35" t="n">
-        <v>867.9964232190744</v>
+        <v>1147.102668724928</v>
       </c>
       <c r="E35" t="n">
-        <v>442.0194833669319</v>
+        <v>1147.102668724928</v>
       </c>
       <c r="F35" t="n">
-        <v>442.0194833669319</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="G35" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H35" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="I35" t="n">
-        <v>82.46363936387527</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J35" t="n">
         <v>217.7424336056674</v>
@@ -6946,13 +6946,13 @@
         <v>696.4871173961203</v>
       </c>
       <c r="M35" t="n">
-        <v>999.558901461356</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N35" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O35" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P35" t="n">
         <v>1838.988606965869</v>
@@ -6976,13 +6976,13 @@
         <v>2099.40039256598</v>
       </c>
       <c r="W35" t="n">
-        <v>1703.009042866327</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="X35" t="n">
-        <v>1291.289044034074</v>
+        <v>1990.243653831458</v>
       </c>
       <c r="Y35" t="n">
-        <v>1291.289044034074</v>
+        <v>1990.243653831458</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>385.8223451978432</v>
+        <v>545.4284223911344</v>
       </c>
       <c r="C37" t="n">
-        <v>213.8497820767592</v>
+        <v>545.4284223911344</v>
       </c>
       <c r="D37" t="n">
-        <v>213.8497820767592</v>
+        <v>545.4284223911344</v>
       </c>
       <c r="E37" t="n">
-        <v>213.8497820767592</v>
+        <v>379.2202165439879</v>
       </c>
       <c r="F37" t="n">
-        <v>41.9880078513196</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="G37" t="n">
         <v>41.9880078513196</v>
@@ -7101,10 +7101,10 @@
         <v>488.3872759282665</v>
       </c>
       <c r="L37" t="n">
-        <v>779.1053693881262</v>
+        <v>771.3899661998873</v>
       </c>
       <c r="M37" t="n">
-        <v>892.9586405180871</v>
+        <v>1290.991563359967</v>
       </c>
       <c r="N37" t="n">
         <v>1403.414506136748</v>
@@ -7125,22 +7125,22 @@
         <v>1937.538471245867</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.987046763707</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="U37" t="n">
-        <v>1417.850954731568</v>
+        <v>1761.064927187111</v>
       </c>
       <c r="V37" t="n">
-        <v>1319.747382601849</v>
+        <v>1479.35345979514</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.894978774362</v>
+        <v>1204.501055967653</v>
       </c>
       <c r="X37" t="n">
-        <v>802.3310822201668</v>
+        <v>961.9371594134579</v>
       </c>
       <c r="Y37" t="n">
-        <v>575.9883139099088</v>
+        <v>735.5943911032</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1687.680393733727</v>
+        <v>815.7182786146222</v>
       </c>
       <c r="C38" t="n">
-        <v>1571.24804758147</v>
+        <v>815.7182786146222</v>
       </c>
       <c r="D38" t="n">
-        <v>1147.95542676647</v>
+        <v>392.4256577996225</v>
       </c>
       <c r="E38" t="n">
-        <v>721.9784869143278</v>
+        <v>392.4256577996225</v>
       </c>
       <c r="F38" t="n">
-        <v>721.9784869143278</v>
+        <v>392.4256577996225</v>
       </c>
       <c r="G38" t="n">
         <v>319.6158027422738</v>
@@ -7171,19 +7171,19 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I38" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J38" t="n">
-        <v>217.7424336056672</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792934</v>
       </c>
       <c r="L38" t="n">
-        <v>696.4871173961203</v>
+        <v>696.4871173961204</v>
       </c>
       <c r="M38" t="n">
-        <v>999.558901461356</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N38" t="n">
         <v>1308.284447706123</v>
@@ -7201,25 +7201,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S38" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T38" t="n">
-        <v>2099.40039256598</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U38" t="n">
-        <v>2099.40039256598</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="V38" t="n">
-        <v>2099.40039256598</v>
+        <v>1212.109628314275</v>
       </c>
       <c r="W38" t="n">
-        <v>2099.40039256598</v>
+        <v>815.7182786146222</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.680393733727</v>
+        <v>815.7182786146222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1687.680393733727</v>
+        <v>815.7182786146222</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>61.66083576940667</v>
       </c>
       <c r="J39" t="n">
-        <v>139.1740587367884</v>
+        <v>428.6498350246929</v>
       </c>
       <c r="K39" t="n">
-        <v>284.3566619303507</v>
+        <v>573.8324382182552</v>
       </c>
       <c r="L39" t="n">
-        <v>487.1000015078574</v>
+        <v>776.575777795762</v>
       </c>
       <c r="M39" t="n">
-        <v>1006.701598667937</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N39" t="n">
         <v>1264.737129518161</v>
@@ -7332,22 +7332,22 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J40" t="n">
-        <v>82.98836776881163</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K40" t="n">
-        <v>163.1829501660236</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L40" t="n">
-        <v>647.0529913238606</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M40" t="n">
-        <v>1166.654588483941</v>
+        <v>1357.088342469294</v>
       </c>
       <c r="N40" t="n">
-        <v>1279.077531260721</v>
+        <v>1867.544208087954</v>
       </c>
       <c r="O40" t="n">
-        <v>1757.319762449742</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P40" t="n">
         <v>2051.015803810863</v>
@@ -7356,28 +7356,28 @@
         <v>2099.40039256598</v>
       </c>
       <c r="R40" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S40" t="n">
-        <v>1937.538471245867</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.987046763707</v>
+        <v>1859.84896808382</v>
       </c>
       <c r="U40" t="n">
-        <v>1697.987046763707</v>
+        <v>1579.712876051681</v>
       </c>
       <c r="V40" t="n">
-        <v>1416.275579371735</v>
+        <v>1298.00140865971</v>
       </c>
       <c r="W40" t="n">
-        <v>1141.423175544248</v>
+        <v>1023.149004832223</v>
       </c>
       <c r="X40" t="n">
-        <v>898.8592789900534</v>
+        <v>780.5851082780276</v>
       </c>
       <c r="Y40" t="n">
-        <v>672.5165106797955</v>
+        <v>779.3569456251992</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1024.14632454411</v>
+        <v>1424.383603530621</v>
       </c>
       <c r="C41" t="n">
-        <v>597.2455945574097</v>
+        <v>1424.383603530621</v>
       </c>
       <c r="D41" t="n">
-        <v>597.2455945574097</v>
+        <v>1001.090982715621</v>
       </c>
       <c r="E41" t="n">
-        <v>171.2686547052673</v>
+        <v>1001.090982715621</v>
       </c>
       <c r="F41" t="n">
-        <v>171.2686547052673</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="G41" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H41" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="I41" t="n">
-        <v>82.46363936387527</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J41" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792935</v>
       </c>
       <c r="L41" t="n">
-        <v>696.4871173961203</v>
+        <v>696.4871173961205</v>
       </c>
       <c r="M41" t="n">
-        <v>999.558901461356</v>
+        <v>999.5589014613561</v>
       </c>
       <c r="N41" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O41" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P41" t="n">
-        <v>1838.988606965869</v>
+        <v>1838.98860696587</v>
       </c>
       <c r="Q41" t="n">
-        <v>2012.404604961347</v>
+        <v>2012.404604961348</v>
       </c>
       <c r="R41" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="S41" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T41" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U41" t="n">
-        <v>1841.203593421472</v>
+        <v>1781.873018404371</v>
       </c>
       <c r="V41" t="n">
-        <v>1841.203593421472</v>
+        <v>1424.383603530621</v>
       </c>
       <c r="W41" t="n">
-        <v>1841.203593421472</v>
+        <v>1424.383603530621</v>
       </c>
       <c r="X41" t="n">
-        <v>1429.483594589219</v>
+        <v>1424.383603530621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1024.14632454411</v>
+        <v>1424.383603530621</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G42" t="n">
-        <v>85.15130637965788</v>
+        <v>85.1513063796579</v>
       </c>
       <c r="H42" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="I42" t="n">
-        <v>85.11814161381852</v>
+        <v>61.66083576940669</v>
       </c>
       <c r="J42" t="n">
-        <v>162.6313645812002</v>
+        <v>428.6498350246929</v>
       </c>
       <c r="K42" t="n">
-        <v>307.8139677747625</v>
+        <v>573.8324382182552</v>
       </c>
       <c r="L42" t="n">
-        <v>510.5573073522693</v>
+        <v>776.575777795762</v>
       </c>
       <c r="M42" t="n">
-        <v>750.2947129316779</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N42" t="n">
-        <v>998.7186590746682</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O42" t="n">
-        <v>1222.367319518387</v>
+        <v>1488.38578996188</v>
       </c>
       <c r="P42" t="n">
-        <v>1398.723463474137</v>
+        <v>1664.74193391763</v>
       </c>
       <c r="Q42" t="n">
-        <v>1669.063976078264</v>
+        <v>1774.51947636317</v>
       </c>
       <c r="R42" t="n">
         <v>1815.43175696209</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>583.2423743423558</v>
+        <v>380.1687768195501</v>
       </c>
       <c r="C43" t="n">
-        <v>411.2698112212718</v>
+        <v>208.1962136984661</v>
       </c>
       <c r="D43" t="n">
-        <v>411.2698112212718</v>
+        <v>208.1962136984661</v>
       </c>
       <c r="E43" t="n">
-        <v>411.2698112212718</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="F43" t="n">
-        <v>239.4080369958322</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="G43" t="n">
-        <v>74.0376025286034</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="H43" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="I43" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="J43" t="n">
         <v>82.98836776881163</v>
       </c>
       <c r="K43" t="n">
-        <v>410.4655592800457</v>
+        <v>315.5659267689661</v>
       </c>
       <c r="L43" t="n">
-        <v>894.3356004378827</v>
+        <v>799.4359679268032</v>
       </c>
       <c r="M43" t="n">
-        <v>1008.188871567844</v>
+        <v>913.2892390567641</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.611814344624</v>
+        <v>1025.712181833545</v>
       </c>
       <c r="O43" t="n">
         <v>1503.954413022565</v>
@@ -7596,25 +7596,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S43" t="n">
-        <v>2092.223627342374</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T43" t="n">
-        <v>1852.672202860213</v>
+        <v>1875.941373647666</v>
       </c>
       <c r="U43" t="n">
-        <v>1572.536110828074</v>
+        <v>1595.805281615527</v>
       </c>
       <c r="V43" t="n">
-        <v>1290.824643436103</v>
+        <v>1314.093814223555</v>
       </c>
       <c r="W43" t="n">
-        <v>1015.972239608616</v>
+        <v>1039.241410396068</v>
       </c>
       <c r="X43" t="n">
-        <v>773.4083430544214</v>
+        <v>796.6775138418736</v>
       </c>
       <c r="Y43" t="n">
-        <v>773.4083430544214</v>
+        <v>570.3347455316157</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>461.0034186388351</v>
+        <v>1322.0626134007</v>
       </c>
       <c r="C44" t="n">
-        <v>461.0034186388351</v>
+        <v>895.1618834139999</v>
       </c>
       <c r="D44" t="n">
-        <v>461.0034186388351</v>
+        <v>471.8692625990002</v>
       </c>
       <c r="E44" t="n">
-        <v>461.0034186388351</v>
+        <v>45.89232274685776</v>
       </c>
       <c r="F44" t="n">
-        <v>319.6158027422738</v>
+        <v>45.89232274685776</v>
       </c>
       <c r="G44" t="n">
-        <v>319.6158027422738</v>
+        <v>45.89232274685776</v>
       </c>
       <c r="H44" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="I44" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J44" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7352879792936</v>
+        <v>428.7352879792935</v>
       </c>
       <c r="L44" t="n">
-        <v>696.4871173961208</v>
+        <v>696.4871173961205</v>
       </c>
       <c r="M44" t="n">
         <v>999.5589014613563</v>
@@ -7669,31 +7669,31 @@
         <v>1838.98860696587</v>
       </c>
       <c r="Q44" t="n">
-        <v>2012.404604961347</v>
+        <v>2012.404604961348</v>
       </c>
       <c r="R44" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="S44" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T44" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="U44" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="V44" t="n">
-        <v>1682.580402675128</v>
+        <v>1741.91097769223</v>
       </c>
       <c r="W44" t="n">
-        <v>1286.189052975475</v>
+        <v>1741.91097769223</v>
       </c>
       <c r="X44" t="n">
-        <v>1286.189052975475</v>
+        <v>1741.91097769223</v>
       </c>
       <c r="Y44" t="n">
-        <v>880.8517829303652</v>
+        <v>1741.91097769223</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G45" t="n">
-        <v>85.15130637965788</v>
+        <v>85.1513063796579</v>
       </c>
       <c r="H45" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="I45" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J45" t="n">
-        <v>428.6498350246929</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K45" t="n">
-        <v>573.8324382182552</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L45" t="n">
-        <v>776.575777795762</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.313183375171</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N45" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O45" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P45" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R45" t="n">
         <v>1815.43175696209</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>596.451030514258</v>
+        <v>441.7658744177515</v>
       </c>
       <c r="C46" t="n">
-        <v>424.478467393174</v>
+        <v>441.7658744177515</v>
       </c>
       <c r="D46" t="n">
-        <v>424.478467393174</v>
+        <v>278.4491015445222</v>
       </c>
       <c r="E46" t="n">
-        <v>422.8719821703427</v>
+        <v>278.4491015445222</v>
       </c>
       <c r="F46" t="n">
-        <v>251.0102079449031</v>
+        <v>278.4491015445222</v>
       </c>
       <c r="G46" t="n">
-        <v>251.0102079449031</v>
+        <v>113.0786670772934</v>
       </c>
       <c r="H46" t="n">
-        <v>115.0960436647958</v>
+        <v>113.0786670772934</v>
       </c>
       <c r="I46" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="J46" t="n">
-        <v>160.9100844170325</v>
+        <v>139.4622326356312</v>
       </c>
       <c r="K46" t="n">
-        <v>488.3872759282665</v>
+        <v>466.9394241468652</v>
       </c>
       <c r="L46" t="n">
-        <v>595.8684234949386</v>
+        <v>950.8094653047023</v>
       </c>
       <c r="M46" t="n">
-        <v>1115.470020655019</v>
+        <v>1064.662736434663</v>
       </c>
       <c r="N46" t="n">
-        <v>1625.925886273679</v>
+        <v>1177.085679211444</v>
       </c>
       <c r="O46" t="n">
-        <v>1726.465793159497</v>
+        <v>1655.327910400464</v>
       </c>
       <c r="P46" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q46" t="n">
         <v>2099.40039256598</v>
@@ -7833,25 +7833,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S46" t="n">
-        <v>2092.223627342374</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T46" t="n">
-        <v>2092.223627342374</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="U46" t="n">
-        <v>1812.087535310235</v>
+        <v>1657.402379213728</v>
       </c>
       <c r="V46" t="n">
-        <v>1530.376067918264</v>
+        <v>1375.690911821757</v>
       </c>
       <c r="W46" t="n">
-        <v>1255.523664090776</v>
+        <v>1100.83850799427</v>
       </c>
       <c r="X46" t="n">
-        <v>1012.959767536582</v>
+        <v>858.2746114400751</v>
       </c>
       <c r="Y46" t="n">
-        <v>786.6169992263236</v>
+        <v>631.9318431298171</v>
       </c>
     </row>
   </sheetData>
@@ -8218,7 +8218,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K5" t="n">
-        <v>9.188120483615116</v>
+        <v>9.188120483615119</v>
       </c>
       <c r="L5" t="n">
         <v>5.341568553442613</v>
@@ -8233,7 +8233,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P5" t="n">
-        <v>7.531191812490523</v>
+        <v>7.531191812490526</v>
       </c>
       <c r="Q5" t="n">
         <v>13.562754156455</v>
@@ -8315,7 +8315,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.477581017613943</v>
+        <v>8.477581017613941</v>
       </c>
       <c r="R6" t="n">
         <v>16.73234637554063</v>
@@ -8376,7 +8376,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K7" t="n">
-        <v>10.07631485409216</v>
+        <v>10.07631485409217</v>
       </c>
       <c r="L7" t="n">
         <v>7.985433933586291</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>292.3997740281865</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.3997740281865</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>205.6237822544085</v>
+        <v>57.04430794628188</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.45480465399415</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>192.3573272579323</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>292.3997740281864</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>57.04430794628188</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>192.3573272579322</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K21" t="n">
-        <v>162.1848183420071</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0306295690048</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>285.6592846385088</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>192.3573272579322</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>409.8467939698173</v>
       </c>
       <c r="N25" t="n">
-        <v>361.4727596859348</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K27" t="n">
-        <v>162.1848183420072</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>177.2944875807559</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>409.8467939698172</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>322.7677156186825</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K30" t="n">
-        <v>292.3997740281864</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>292.3997740281865</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>340.936801566059</v>
       </c>
       <c r="P34" t="n">
-        <v>220.6866219315845</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,13 +10749,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>185.0878241345329</v>
+        <v>177.2944875807563</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>292.3997740281865</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>282.6911026067388</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>9.708671421447605</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>409.8467939698173</v>
+        <v>273.7149032860901</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>212.893285377808</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>292.3997740281864</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>162.1848183420072</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>153.9221985888308</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>285.6592846385088</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>292.3997740281865</v>
+        <v>162.1848183420071</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>57.04430794628234</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>409.8467939698173</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>91.15638831957172</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08674335225113589</v>
+        <v>0.08674335225111918</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>211.170009168958</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.1512354641813</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>161.8623924674955</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>50.35693914359575</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.3702615694439</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T13" t="n">
         <v>237.1559102373387</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>166.8906231889407</v>
       </c>
       <c r="G14" t="n">
-        <v>317.2240271864268</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6148311530628</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.30780042921913</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.29878485842661</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>285.0045644164353</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3390573303334</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8515169420447</v>
+        <v>12.70950124875043</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.73726926693029</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>73.38466664297417</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I19" t="n">
-        <v>72.3769554553414</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.824392288794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>220.02647031096</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1512354641813</v>
+        <v>171.9466027564581</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.529707874426379</v>
+        <v>106.1796825096518</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H22" t="n">
         <v>134.5550226373062</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>220.3486856023237</v>
       </c>
       <c r="E23" t="n">
-        <v>225.284380778649</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>146.686393190541</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>129.4472278875638</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>348.7018499835061</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3390573303334</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.1512354641813</v>
@@ -24505,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.38973326337293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>138.20612523293</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1559102373387</v>
+        <v>68.7230496477832</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>107.5940096107825</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T29" t="n">
         <v>210.1512354641813</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>12.97760309752312</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.3122649709417</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>127.6110722091361</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>72.37695545534142</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.3390573303334</v>
@@ -24973,19 +24973,19 @@
         <v>210.1512354641813</v>
       </c>
       <c r="U32" t="n">
-        <v>212.6539606564928</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>29.38973326337265</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7167301225565</v>
+        <v>116.987850206087</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>72.37695545534142</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>21.52851420271774</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.307896569877244</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>299.5376274967531</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.5550226373062</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>102.6259224936494</v>
       </c>
       <c r="V37" t="n">
-        <v>181.7718163096296</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>307.3636999960983</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>326.2573008235582</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.7720305959497</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.8634596008552</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>144.5515691492137</v>
       </c>
       <c r="G41" t="n">
-        <v>270.3512169449252</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.1512354641813</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H43" t="n">
-        <v>102.8259239067952</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I43" t="n">
-        <v>72.37695545534142</v>
+        <v>72.3769554553414</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>176.1747836151192</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>280.8992002548981</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.3390573303334</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>270.9862451954619</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.73726926693029</v>
       </c>
       <c r="T44" t="n">
         <v>210.1512354641813</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>162.9557034180719</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.997202821627354</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1559102373387</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370723.6979823676</v>
+        <v>370723.6979823675</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370723.6979823675</v>
+        <v>370723.6979823676</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>370723.6979823676</v>
+        <v>370723.6979823675</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>370723.6979823676</v>
+        <v>370723.6979823675</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>370723.6979823675</v>
+        <v>370723.6979823676</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>370723.6979823676</v>
+        <v>370723.6979823675</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370723.6979823676</v>
+        <v>370723.6979823675</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370723.6979823675</v>
+        <v>370723.6979823676</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415985.1628214262</v>
+        <v>415985.1628214261</v>
       </c>
       <c r="C2" t="n">
+        <v>415986.0355340958</v>
+      </c>
+      <c r="D2" t="n">
         <v>415986.0355340961</v>
       </c>
-      <c r="D2" t="n">
-        <v>415986.0355340962</v>
-      </c>
       <c r="E2" t="n">
-        <v>244470.153228019</v>
+        <v>244470.1532280191</v>
       </c>
       <c r="F2" t="n">
         <v>244470.153228019</v>
       </c>
       <c r="G2" t="n">
-        <v>244470.1532280191</v>
+        <v>244470.153228019</v>
       </c>
       <c r="H2" t="n">
         <v>244470.153228019</v>
@@ -26346,16 +26346,16 @@
         <v>244470.153228019</v>
       </c>
       <c r="M2" t="n">
-        <v>244470.1532280191</v>
+        <v>244470.153228019</v>
       </c>
       <c r="N2" t="n">
         <v>244470.153228019</v>
       </c>
       <c r="O2" t="n">
-        <v>244470.153228019</v>
+        <v>244470.1532280191</v>
       </c>
       <c r="P2" t="n">
-        <v>244470.153228019</v>
+        <v>244470.1532280191</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>310682.5703880748</v>
       </c>
       <c r="C4" t="n">
-        <v>309599.3910919995</v>
+        <v>309599.3910919996</v>
       </c>
       <c r="D4" t="n">
         <v>309599.3910919995</v>
@@ -26429,25 +26429,25 @@
         <v>25530.36307392168</v>
       </c>
       <c r="F4" t="n">
+        <v>25530.36307392168</v>
+      </c>
+      <c r="G4" t="n">
         <v>25530.36307392169</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25530.36307392168</v>
       </c>
       <c r="H4" t="n">
         <v>25530.36307392169</v>
       </c>
       <c r="I4" t="n">
-        <v>25530.36307392169</v>
+        <v>25530.36307392168</v>
       </c>
       <c r="J4" t="n">
         <v>25530.36307392168</v>
       </c>
       <c r="K4" t="n">
-        <v>25530.36307392168</v>
+        <v>25530.36307392169</v>
       </c>
       <c r="L4" t="n">
-        <v>25530.36307392168</v>
+        <v>25530.36307392169</v>
       </c>
       <c r="M4" t="n">
         <v>25530.36307392169</v>
@@ -26508,10 +26508,10 @@
         <v>42521.11700888626</v>
       </c>
       <c r="O5" t="n">
-        <v>42521.11700888626</v>
+        <v>42521.11700888627</v>
       </c>
       <c r="P5" t="n">
-        <v>42521.11700888626</v>
+        <v>42521.11700888627</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24168.96537954105</v>
+        <v>24147.29030544886</v>
       </c>
       <c r="C6" t="n">
-        <v>68200.67302281861</v>
+        <v>68179.00095808033</v>
       </c>
       <c r="D6" t="n">
-        <v>71626.07777556733</v>
+        <v>71604.40571082935</v>
       </c>
       <c r="E6" t="n">
-        <v>-329558.9474830275</v>
+        <v>-330172.0536246829</v>
       </c>
       <c r="F6" t="n">
-        <v>176418.673145211</v>
+        <v>175805.5670035556</v>
       </c>
       <c r="G6" t="n">
-        <v>176418.6731452112</v>
+        <v>175805.5670035556</v>
       </c>
       <c r="H6" t="n">
-        <v>176418.6731452111</v>
+        <v>175805.5670035556</v>
       </c>
       <c r="I6" t="n">
-        <v>176418.6731452111</v>
+        <v>175805.5670035557</v>
       </c>
       <c r="J6" t="n">
-        <v>176418.6731452111</v>
+        <v>175805.5670035556</v>
       </c>
       <c r="K6" t="n">
-        <v>176418.6731452111</v>
+        <v>175805.5670035557</v>
       </c>
       <c r="L6" t="n">
-        <v>176418.673145211</v>
+        <v>175805.5670035556</v>
       </c>
       <c r="M6" t="n">
-        <v>45623.92928795802</v>
+        <v>45010.82314630254</v>
       </c>
       <c r="N6" t="n">
-        <v>176418.673145211</v>
+        <v>175805.5670035556</v>
       </c>
       <c r="O6" t="n">
-        <v>176418.6731452111</v>
+        <v>175805.5670035558</v>
       </c>
       <c r="P6" t="n">
-        <v>176418.6731452111</v>
+        <v>175805.5670035557</v>
       </c>
     </row>
   </sheetData>
@@ -26813,7 +26813,7 @@
         <v>524.850098141495</v>
       </c>
       <c r="J4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="K4" t="n">
         <v>524.850098141495</v>
@@ -26828,10 +26828,10 @@
         <v>524.850098141495</v>
       </c>
       <c r="O4" t="n">
-        <v>524.850098141495</v>
+        <v>524.8500981414951</v>
       </c>
       <c r="P4" t="n">
-        <v>524.850098141495</v>
+        <v>524.8500981414951</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H5" t="n">
-        <v>2.139688326696483</v>
+        <v>2.139688326696482</v>
       </c>
       <c r="I5" t="n">
         <v>8.05471345929122</v>
@@ -31305,7 +31305,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P5" t="n">
-        <v>30.04416999774078</v>
+        <v>30.04416999774077</v>
       </c>
       <c r="Q5" t="n">
         <v>22.56192044814304</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1117865674089856</v>
       </c>
       <c r="H6" t="n">
         <v>1.079622901028888</v>
@@ -31387,7 +31387,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.26945727136455</v>
+        <v>14.26945727136456</v>
       </c>
       <c r="R6" t="n">
         <v>6.940573018603515</v>
@@ -31439,7 +31439,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8332391336033026</v>
       </c>
       <c r="I7" t="n">
         <v>2.818358950879063</v>
@@ -31466,13 +31466,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.847613148895721</v>
+        <v>7.84761314889572</v>
       </c>
       <c r="R7" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S7" t="n">
-        <v>1.633250939792975</v>
+        <v>1.633250939792974</v>
       </c>
       <c r="T7" t="n">
         <v>0.4004318944719343</v>
@@ -32241,31 +32241,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L17" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M17" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N17" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O17" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P17" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R17" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S17" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T17" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U17" t="n">
         <v>0.1565291564889897</v>
@@ -32311,10 +32311,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I18" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J18" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K18" t="n">
         <v>169.0483279682448</v>
@@ -32329,7 +32329,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O18" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P18" t="n">
         <v>199.9083603520504</v>
@@ -32344,10 +32344,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T18" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H19" t="n">
         <v>7.803283169620951</v>
@@ -32393,7 +32393,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J19" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K19" t="n">
         <v>101.9692831367645</v>
@@ -32402,10 +32402,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M19" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N19" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O19" t="n">
         <v>124.05464899925</v>
@@ -32414,7 +32414,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R19" t="n">
         <v>39.46322960832841</v>
@@ -32423,7 +32423,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T19" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U19" t="n">
         <v>0.04787290288111015</v>
@@ -34137,31 +34137,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L41" t="n">
-        <v>308.7684357829532</v>
+        <v>308.7684357829533</v>
       </c>
       <c r="M41" t="n">
-        <v>343.5643781168416</v>
+        <v>343.5643781168417</v>
       </c>
       <c r="N41" t="n">
-        <v>349.1236089402709</v>
+        <v>349.123608940271</v>
       </c>
       <c r="O41" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P41" t="n">
-        <v>281.3636045570293</v>
+        <v>281.3636045570294</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.2923493475049</v>
+        <v>211.292349347505</v>
       </c>
       <c r="R41" t="n">
-        <v>122.9071828287688</v>
+        <v>122.9071828287689</v>
       </c>
       <c r="S41" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T41" t="n">
-        <v>8.565079781631908</v>
+        <v>8.56507978163191</v>
       </c>
       <c r="U41" t="n">
         <v>0.1565291564889897</v>
@@ -34207,10 +34207,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I42" t="n">
-        <v>36.0439301016031</v>
+        <v>36.04393010160311</v>
       </c>
       <c r="J42" t="n">
-        <v>98.90729914887038</v>
+        <v>98.90729914887039</v>
       </c>
       <c r="K42" t="n">
         <v>169.0483279682448</v>
@@ -34225,7 +34225,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O42" t="n">
-        <v>249.0796275441609</v>
+        <v>249.079627544161</v>
       </c>
       <c r="P42" t="n">
         <v>199.9083603520504</v>
@@ -34240,10 +34240,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T42" t="n">
-        <v>4.219665192786399</v>
+        <v>4.2196651927864</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06887375178650276</v>
+        <v>0.06887375178650278</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.877669886153685</v>
+        <v>0.8776698861536851</v>
       </c>
       <c r="H43" t="n">
         <v>7.803283169620951</v>
@@ -34289,7 +34289,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J43" t="n">
-        <v>62.05126095106553</v>
+        <v>62.05126095106554</v>
       </c>
       <c r="K43" t="n">
         <v>101.9692831367645</v>
@@ -34298,10 +34298,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M43" t="n">
-        <v>137.5787440631635</v>
+        <v>137.5787440631636</v>
       </c>
       <c r="N43" t="n">
-        <v>134.3074290329544</v>
+        <v>134.3074290329545</v>
       </c>
       <c r="O43" t="n">
         <v>124.05464899925</v>
@@ -34310,7 +34310,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.49288473965085</v>
+        <v>73.49288473965086</v>
       </c>
       <c r="R43" t="n">
         <v>39.46322960832841</v>
@@ -34319,7 +34319,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T43" t="n">
-        <v>3.750044059020289</v>
+        <v>3.75004405902029</v>
       </c>
       <c r="U43" t="n">
         <v>0.04787290288111015</v>
@@ -34365,7 +34365,7 @@
         <v>20.03817779866083</v>
       </c>
       <c r="I44" t="n">
-        <v>75.43237881927226</v>
+        <v>75.43237881927234</v>
       </c>
       <c r="J44" t="n">
         <v>166.0652061944675</v>
@@ -34374,31 +34374,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L44" t="n">
-        <v>308.7684357829532</v>
+        <v>308.7684357829533</v>
       </c>
       <c r="M44" t="n">
-        <v>343.5643781168416</v>
+        <v>343.5643781168417</v>
       </c>
       <c r="N44" t="n">
-        <v>349.1236089402709</v>
+        <v>349.123608940271</v>
       </c>
       <c r="O44" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P44" t="n">
-        <v>281.3636045570293</v>
+        <v>281.3636045570294</v>
       </c>
       <c r="Q44" t="n">
-        <v>211.2923493475049</v>
+        <v>211.292349347505</v>
       </c>
       <c r="R44" t="n">
-        <v>122.9071828287688</v>
+        <v>122.9071828287689</v>
       </c>
       <c r="S44" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T44" t="n">
-        <v>8.565079781631908</v>
+        <v>8.56507978163191</v>
       </c>
       <c r="U44" t="n">
         <v>0.1565291564889897</v>
@@ -34444,10 +34444,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I45" t="n">
-        <v>36.0439301016031</v>
+        <v>36.04393010160311</v>
       </c>
       <c r="J45" t="n">
-        <v>98.90729914887038</v>
+        <v>98.90729914887039</v>
       </c>
       <c r="K45" t="n">
         <v>169.0483279682448</v>
@@ -34462,7 +34462,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O45" t="n">
-        <v>249.0796275441609</v>
+        <v>249.079627544161</v>
       </c>
       <c r="P45" t="n">
         <v>199.9083603520504</v>
@@ -34477,10 +34477,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T45" t="n">
-        <v>4.219665192786399</v>
+        <v>4.2196651927864</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06887375178650276</v>
+        <v>0.06887375178650278</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.877669886153685</v>
+        <v>0.8776698861536851</v>
       </c>
       <c r="H46" t="n">
         <v>7.803283169620951</v>
@@ -34526,7 +34526,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J46" t="n">
-        <v>62.05126095106553</v>
+        <v>62.05126095106554</v>
       </c>
       <c r="K46" t="n">
         <v>101.9692831367645</v>
@@ -34535,10 +34535,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M46" t="n">
-        <v>137.5787440631635</v>
+        <v>137.5787440631636</v>
       </c>
       <c r="N46" t="n">
-        <v>134.3074290329544</v>
+        <v>134.3074290329545</v>
       </c>
       <c r="O46" t="n">
         <v>124.05464899925</v>
@@ -34547,7 +34547,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.49288473965085</v>
+        <v>73.49288473965086</v>
       </c>
       <c r="R46" t="n">
         <v>39.46322960832841</v>
@@ -34556,7 +34556,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T46" t="n">
-        <v>3.750044059020289</v>
+        <v>3.75004405902029</v>
       </c>
       <c r="U46" t="n">
         <v>0.04787290288111015</v>
@@ -35488,7 +35488,7 @@
         <v>19.8715433516031</v>
       </c>
       <c r="J12" t="n">
-        <v>78.29618481553705</v>
+        <v>370.6959588437235</v>
       </c>
       <c r="K12" t="n">
         <v>146.6490941349114</v>
@@ -35509,7 +35509,7 @@
         <v>178.1375191472218</v>
       </c>
       <c r="Q12" t="n">
-        <v>403.2861805388331</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R12" t="n">
         <v>41.32553595850473</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K13" t="n">
         <v>330.7850419305394</v>
       </c>
       <c r="L13" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M13" t="n">
         <v>115.0033041716777</v>
       </c>
       <c r="N13" t="n">
-        <v>319.1823103117626</v>
+        <v>170.6028360036359</v>
       </c>
       <c r="O13" t="n">
         <v>483.0729607969905</v>
@@ -35588,7 +35588,7 @@
         <v>399.6847408185844</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>80.86930962115781</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K16" t="n">
         <v>81.00462868405248</v>
@@ -35819,13 +35819,13 @@
         <v>515.6119854733946</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5554615008256</v>
+        <v>293.9127887587579</v>
       </c>
       <c r="P16" t="n">
         <v>83.76938266372825</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L17" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M17" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N17" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O17" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P17" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q17" t="n">
         <v>175.1676747429069</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J18" t="n">
-        <v>370.6959588437235</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K18" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L18" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M18" t="n">
         <v>242.1589955347562</v>
@@ -35986,7 +35986,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R18" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>98.45881291344556</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K19" t="n">
-        <v>330.7850419305394</v>
+        <v>273.3619559419847</v>
       </c>
       <c r="L19" t="n">
         <v>488.7576173311486</v>
       </c>
       <c r="M19" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N19" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O19" t="n">
-        <v>483.0729607969905</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P19" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.87332197486592</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>43.56579167929183</v>
       </c>
       <c r="J21" t="n">
-        <v>78.29618481553705</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K21" t="n">
-        <v>308.8339124769186</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L21" t="n">
         <v>204.7912520984916</v>
@@ -36281,25 +36281,25 @@
         <v>41.41450496716367</v>
       </c>
       <c r="K22" t="n">
-        <v>330.7850419305394</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L22" t="n">
-        <v>488.7576173311486</v>
+        <v>299.597445292916</v>
       </c>
       <c r="M22" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N22" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O22" t="n">
-        <v>387.2147461393343</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P22" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K25" t="n">
-        <v>81.00462868405248</v>
+        <v>273.3619559419847</v>
       </c>
       <c r="L25" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M25" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="N25" t="n">
-        <v>475.0312877432888</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O25" t="n">
-        <v>483.0729607969905</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P25" t="n">
         <v>83.76938266372825</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>243.788242746798</v>
       </c>
       <c r="Q26" t="n">
-        <v>175.1676747429069</v>
+        <v>175.167674742907</v>
       </c>
       <c r="R26" t="n">
         <v>87.87453293397238</v>
@@ -36673,10 +36673,10 @@
         <v>43.56579167929183</v>
       </c>
       <c r="J27" t="n">
-        <v>78.29618481553705</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K27" t="n">
-        <v>308.8339124769186</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L27" t="n">
         <v>204.7912520984916</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K28" t="n">
         <v>330.7850419305394</v>
       </c>
       <c r="L28" t="n">
-        <v>285.8613033046672</v>
+        <v>108.5668157239112</v>
       </c>
       <c r="M28" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N28" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O28" t="n">
-        <v>101.5554615008256</v>
+        <v>424.3231771195081</v>
       </c>
       <c r="P28" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.8715433516031</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J30" t="n">
-        <v>78.29618481553705</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K30" t="n">
-        <v>439.0488681630978</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L30" t="n">
         <v>204.7912520984916</v>
@@ -36934,7 +36934,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R30" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.8715433516031</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J33" t="n">
-        <v>370.6959588437235</v>
+        <v>78.29618481553705</v>
       </c>
       <c r="K33" t="n">
         <v>146.6490941349114</v>
@@ -37168,10 +37168,10 @@
         <v>178.1375191472218</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.8864065106466</v>
+        <v>273.0712248526538</v>
       </c>
       <c r="R33" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.41450496716367</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K34" t="n">
         <v>81.00462868405248</v>
       </c>
       <c r="L34" t="n">
-        <v>488.7576173311486</v>
+        <v>108.5668157239112</v>
       </c>
       <c r="M34" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N34" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O34" t="n">
-        <v>483.0729607969905</v>
+        <v>442.4922630668846</v>
       </c>
       <c r="P34" t="n">
-        <v>304.4560045953128</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.8733219748659</v>
+        <v>201.7758445788043</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37469,13 +37469,13 @@
         <v>330.7850419305394</v>
       </c>
       <c r="L37" t="n">
-        <v>293.6546398584441</v>
+        <v>285.8613033046675</v>
       </c>
       <c r="M37" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N37" t="n">
-        <v>515.6119854733946</v>
+        <v>113.5585280573541</v>
       </c>
       <c r="O37" t="n">
         <v>101.5554615008256</v>
@@ -37621,7 +37621,7 @@
         <v>19.8715433516031</v>
       </c>
       <c r="J39" t="n">
-        <v>78.29618481553705</v>
+        <v>370.6959588437235</v>
       </c>
       <c r="K39" t="n">
         <v>146.6490941349114</v>
@@ -37630,10 +37630,10 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M39" t="n">
-        <v>524.850098141495</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N39" t="n">
-        <v>260.641950353761</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O39" t="n">
         <v>225.9077378219387</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.41450496716367</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K40" t="n">
-        <v>81.00462868405248</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L40" t="n">
         <v>488.7576173311486</v>
       </c>
       <c r="M40" t="n">
-        <v>524.850098141495</v>
+        <v>388.7182074577678</v>
       </c>
       <c r="N40" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O40" t="n">
-        <v>483.0729607969905</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P40" t="n">
-        <v>296.6626680415363</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q40" t="n">
         <v>48.8733219748659</v>
@@ -37785,19 +37785,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L41" t="n">
-        <v>270.4563933503303</v>
+        <v>270.4563933503304</v>
       </c>
       <c r="M41" t="n">
-        <v>306.1331152174098</v>
+        <v>306.1331152174099</v>
       </c>
       <c r="N41" t="n">
-        <v>311.8439861058249</v>
+        <v>311.843986105825</v>
       </c>
       <c r="O41" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P41" t="n">
-        <v>243.788242746798</v>
+        <v>243.7882427467981</v>
       </c>
       <c r="Q41" t="n">
         <v>175.1676747429069</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.56579167929183</v>
+        <v>19.87154335160311</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29618481553705</v>
+        <v>370.6959588437235</v>
       </c>
       <c r="K42" t="n">
-        <v>146.6490941349114</v>
+        <v>146.6490941349115</v>
       </c>
       <c r="L42" t="n">
-        <v>204.7912520984916</v>
+        <v>204.7912520984917</v>
       </c>
       <c r="M42" t="n">
         <v>242.1589955347562</v>
@@ -37879,10 +37879,10 @@
         <v>178.1375191472218</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.0712248526538</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R42" t="n">
-        <v>147.8462433169954</v>
+        <v>41.32553595850473</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>41.41450496716367</v>
       </c>
       <c r="K43" t="n">
-        <v>330.7850419305394</v>
+        <v>234.9268272728833</v>
       </c>
       <c r="L43" t="n">
         <v>488.7576173311486</v>
@@ -37952,7 +37952,7 @@
         <v>113.5585280573541</v>
       </c>
       <c r="O43" t="n">
-        <v>387.2147461393343</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P43" t="n">
         <v>399.6847408185844</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.88447627530876</v>
+        <v>40.88447627530884</v>
       </c>
       <c r="J44" t="n">
         <v>136.645246708881</v>
@@ -38022,19 +38022,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L44" t="n">
-        <v>270.4563933503303</v>
+        <v>270.4563933503304</v>
       </c>
       <c r="M44" t="n">
-        <v>306.1331152174098</v>
+        <v>306.1331152174099</v>
       </c>
       <c r="N44" t="n">
-        <v>311.8439861058249</v>
+        <v>311.843986105825</v>
       </c>
       <c r="O44" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P44" t="n">
-        <v>243.788242746798</v>
+        <v>243.7882427467981</v>
       </c>
       <c r="Q44" t="n">
         <v>175.1676747429069</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.8715433516031</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J45" t="n">
-        <v>370.6959588437235</v>
+        <v>240.4810031575442</v>
       </c>
       <c r="K45" t="n">
-        <v>146.6490941349114</v>
+        <v>146.6490941349115</v>
       </c>
       <c r="L45" t="n">
-        <v>204.7912520984916</v>
+        <v>204.7912520984917</v>
       </c>
       <c r="M45" t="n">
         <v>242.1589955347562</v>
@@ -38119,7 +38119,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R45" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.1233096623363</v>
+        <v>98.45881291344601</v>
       </c>
       <c r="K46" t="n">
         <v>330.7850419305394</v>
       </c>
       <c r="L46" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M46" t="n">
-        <v>524.850098141495</v>
+        <v>115.0033041716777</v>
       </c>
       <c r="N46" t="n">
-        <v>515.6119854733946</v>
+        <v>113.5585280573541</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5554615008256</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P46" t="n">
-        <v>174.9257709833</v>
+        <v>399.6847408185844</v>
       </c>
       <c r="Q46" t="n">
-        <v>201.7758445788043</v>
+        <v>48.87332197486592</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
